--- a/archivos/estudiantes.xlsx
+++ b/archivos/estudiantes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="LISTA DE ESTUDIANTES" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
-  <si>
-    <t>DIRECCION</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>jDoe@correo.com</t>
   </si>
@@ -45,12 +42,6 @@
   </si>
   <si>
     <t>GENERO</t>
-  </si>
-  <si>
-    <t>FECHA NACIMIENTO</t>
-  </si>
-  <si>
-    <t>EDAD</t>
   </si>
   <si>
     <t>CARGO</t>
@@ -81,9 +72,6 @@
   </si>
   <si>
     <t>ENFERMERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLL 85 96 74 </t>
   </si>
   <si>
     <t>ID</t>
@@ -123,9 +111,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -199,13 +184,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -231,31 +215,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -332,18 +291,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:M2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <tableColumns count="13">
-    <tableColumn id="1" name="NIT EMPRESA" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:J2" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <tableColumns count="10">
+    <tableColumn id="1" name="NIT EMPRESA" dataDxfId="6"/>
     <tableColumn id="2" name="TIPO DOCUMENTO" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="N. DOCUMENTO" dataDxfId="8"/>
-    <tableColumn id="4" name="NOMBRES" dataDxfId="7"/>
+    <tableColumn id="3" name="N. DOCUMENTO" dataDxfId="5"/>
+    <tableColumn id="4" name="NOMBRES" dataDxfId="4"/>
     <tableColumn id="6" name="APELLIDOS"/>
     <tableColumn id="7" name="GENERO"/>
-    <tableColumn id="5" name="FECHA NACIMIENTO" dataDxfId="6"/>
-    <tableColumn id="8" name="EDAD" dataDxfId="5"/>
-    <tableColumn id="9" name="CARGO" dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="10" name="DIRECCION" dataDxfId="3"/>
+    <tableColumn id="9" name="CARGO" dataDxfId="3" dataCellStyle="Hipervínculo"/>
     <tableColumn id="11" name="CELULAR" dataDxfId="2"/>
     <tableColumn id="12" name="CORREO" dataDxfId="1" dataCellStyle="Hipervínculo"/>
     <tableColumn id="13" name="ID MODULO A ASIGNAR" dataDxfId="0"/>
@@ -615,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -629,57 +585,45 @@
     <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>12345699</v>
       </c>
@@ -690,34 +634,25 @@
         <v>123456852</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
-      <c r="G2" s="9">
-        <v>32299</v>
+      <c r="G2" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="1">
-        <v>30</v>
+        <v>305963126</v>
       </c>
-      <c r="I2" t="s">
-        <v>19</v>
+      <c r="I2" s="5" t="s">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1">
-        <v>305963126</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="2:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,7 +741,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -833,13 +768,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,10 +793,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1022,13 +957,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1036,10 +971,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,10 +982,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
